--- a/TEST CASE.xlsx
+++ b/TEST CASE.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veeresha K\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B565D1E-E5B5-4394-956E-A0F5989873F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D53D75FB-8D23-4A0A-92B2-CC22E3DB576D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +12,8 @@
     <sheet name="avacities" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
   <si>
     <t>Test case name id</t>
   </si>
@@ -304,6 +300,21 @@
   </si>
   <si>
     <t>product is added</t>
+  </si>
+  <si>
+    <t>nerjkgkrgktrgkggklerhkljkksjh kfk</t>
+  </si>
+  <si>
+    <t>fkgneklgklngengknkjgjrgjbvbfrrtesjs</t>
+  </si>
+  <si>
+    <t>veeresna m</t>
+  </si>
+  <si>
+    <t>veeresgas  k</t>
+  </si>
+  <si>
+    <t>veeresha k</t>
   </si>
 </sst>
 </file>
@@ -681,10 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,7 +701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,30 +1004,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1157,10 +1168,10 @@
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -1272,10 +1283,10 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
@@ -1304,27 +1315,27 @@
       <c r="C29" s="16"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1451,10 +1462,10 @@
       <c r="G44" s="1"/>
     </row>
     <row r="46" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
@@ -1547,10 +1558,10 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
@@ -1579,27 +1590,27 @@
       <c r="C57" s="16"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1726,10 +1737,10 @@
       <c r="G73" s="1"/>
     </row>
     <row r="75" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="23"/>
+      <c r="C75" s="26"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
@@ -1822,10 +1833,10 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="25"/>
+      <c r="C82" s="24"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
@@ -1854,27 +1865,27 @@
       <c r="C86" s="16"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="2:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="22"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2001,10 +2012,10 @@
       <c r="H100" s="1"/>
     </row>
     <row r="102" spans="3:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="23"/>
+      <c r="D102" s="26"/>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C103" s="3" t="s">
@@ -2111,10 +2122,10 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="24"/>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C111" s="11" t="s">
@@ -2143,26 +2154,26 @@
       <c r="D114" s="16"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="3:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="22"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -2277,10 +2288,10 @@
       <c r="G129" s="1"/>
     </row>
     <row r="131" spans="3:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="23"/>
+      <c r="D131" s="26"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="3" t="s">
@@ -2404,10 +2415,10 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="3:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D141" s="25"/>
+      <c r="D141" s="24"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="11" t="s">
@@ -2437,18 +2448,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:F32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B60:F61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B82:C82"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C141:D141"/>
@@ -2457,6 +2456,18 @@
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="C116:G117"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B60:F61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2466,9 +2477,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB42A64D-5C9F-434B-9A99-EC6783F1A0E1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2486,28 +2499,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2646,10 +2659,10 @@
       <c r="H15" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -2862,10 +2875,10 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -2896,6 +2909,31 @@
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
